--- a/#DSASheetbyArsh (45-60 Days).xlsx
+++ b/#DSASheetbyArsh (45-60 Days).xlsx
@@ -1,17 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
+  <bookViews>
+    <workbookView xWindow="390" yWindow="645" windowWidth="19815" windowHeight="8640"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="789" uniqueCount="322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="790" uniqueCount="323">
   <si>
     <t>#CrackYourInternship</t>
   </si>
@@ -24,15 +27,17 @@
   <si>
     <r>
       <rPr>
+        <sz val="10"/>
         <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">Follow on Youtube : </t>
     </r>
     <r>
       <rPr>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FF1155CC"/>
         <rFont val="Arial"/>
-        <color rgb="FF1155CC"/>
-        <u/>
       </rPr>
       <t>https://www.youtube.com/c/arshgoyal</t>
     </r>
@@ -505,17 +510,19 @@
   <si>
     <r>
       <rPr>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FF1155CC"/>
         <rFont val="Arial"/>
-        <color rgb="FF1155CC"/>
-        <u/>
       </rPr>
       <t>https://leetcode.com/problems/binary-tree-inorder-traversal/</t>
     </r>
     <r>
       <rPr>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
-        <color rgb="FF000000"/>
-        <u/>
       </rPr>
       <t xml:space="preserve">  </t>
     </r>
@@ -1005,134 +1012,159 @@
   </si>
   <si>
     <t>https://leetcode.com/problems/count-of-range-sum/</t>
+  </si>
+  <si>
+    <t>done</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="22">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="24">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF1155CC"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF1155CC"/>
       <name val="Arial"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF1155CC"/>
       <name val="Arial"/>
     </font>
     <font>
       <u/>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color rgb="FF1155CC"/>
       <name val="&quot;Open Sans&quot;"/>
     </font>
     <font>
       <u/>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color rgb="FF1155CC"/>
       <name val="&quot;Open Sans&quot;"/>
     </font>
     <font>
       <u/>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color rgb="FF1155CC"/>
       <name val="&quot;Open Sans&quot;"/>
     </font>
     <font>
       <u/>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color rgb="FF1155CC"/>
       <name val="&quot;Open Sans&quot;"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
       <u/>
+      <sz val="10"/>
       <color rgb="FF1155CC"/>
       <name val="Arial"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF4C8AC9"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
       <color rgb="FF060606"/>
       <name val="Arial"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
       <u/>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
       <u/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
   </fonts>
@@ -1141,7 +1173,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1157,107 +1189,85 @@
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="27">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -1447,24 +1457,29 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:I333"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="18.63"/>
-    <col customWidth="1" min="3" max="3" width="64.13"/>
+    <col min="1" max="1" width="18.5703125" customWidth="1"/>
+    <col min="3" max="3" width="64.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:9" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1472,7 +1487,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1480,7 +1495,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:9" ht="15.75" customHeight="1">
       <c r="D4" s="4" t="s">
         <v>4</v>
       </c>
@@ -1500,24 +1515,27 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:9" ht="15.75" customHeight="1">
       <c r="B5" s="6"/>
       <c r="C5" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:9">
       <c r="B6" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>12</v>
       </c>
+      <c r="D6" t="s">
+        <v>322</v>
+      </c>
       <c r="I6" s="10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:9">
       <c r="B7" s="8" t="s">
         <v>11</v>
       </c>
@@ -1534,7 +1552,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:9">
       <c r="B8" s="8" t="s">
         <v>11</v>
       </c>
@@ -1545,7 +1563,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:9">
       <c r="B9" s="8" t="s">
         <v>11</v>
       </c>
@@ -1554,7 +1572,7 @@
       </c>
       <c r="E9" s="11"/>
     </row>
-    <row r="10">
+    <row r="10" spans="1:9">
       <c r="B10" s="8" t="s">
         <v>11</v>
       </c>
@@ -1565,7 +1583,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:9">
       <c r="B11" s="8" t="s">
         <v>11</v>
       </c>
@@ -1577,7 +1595,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:9">
       <c r="B12" s="8" t="s">
         <v>11</v>
       </c>
@@ -1585,7 +1603,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:9">
       <c r="B13" s="8" t="s">
         <v>11</v>
       </c>
@@ -1593,7 +1611,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:9">
       <c r="B14" s="8" t="s">
         <v>11</v>
       </c>
@@ -1604,7 +1622,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:9">
       <c r="B15" s="8" t="s">
         <v>22</v>
       </c>
@@ -1612,7 +1630,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:9">
       <c r="B16" s="8" t="s">
         <v>22</v>
       </c>
@@ -1623,7 +1641,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="2:9">
       <c r="B17" s="8" t="s">
         <v>22</v>
       </c>
@@ -1634,7 +1652,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="2:9">
       <c r="B18" s="8" t="s">
         <v>22</v>
       </c>
@@ -1646,7 +1664,7 @@
       </c>
       <c r="F18" s="11"/>
     </row>
-    <row r="19">
+    <row r="19" spans="2:9">
       <c r="B19" s="8" t="s">
         <v>22</v>
       </c>
@@ -1657,7 +1675,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="2:9">
       <c r="B20" s="8" t="s">
         <v>22</v>
       </c>
@@ -1668,7 +1686,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="2:9">
       <c r="B21" s="8" t="s">
         <v>22</v>
       </c>
@@ -1679,7 +1697,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="2:9" ht="12.75">
       <c r="B22" s="8" t="s">
         <v>22</v>
       </c>
@@ -1687,7 +1705,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="2:9" ht="12.75">
       <c r="B23" s="8" t="s">
         <v>22</v>
       </c>
@@ -1695,7 +1713,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="2:9" ht="12.75">
       <c r="B24" s="8" t="s">
         <v>22</v>
       </c>
@@ -1703,7 +1721,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="2:9" ht="12.75">
       <c r="B25" s="8" t="s">
         <v>22</v>
       </c>
@@ -1711,7 +1729,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="2:9" ht="12.75">
       <c r="B26" s="8" t="s">
         <v>22</v>
       </c>
@@ -1719,7 +1737,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="2:9" ht="12.75">
       <c r="B27" s="8" t="s">
         <v>22</v>
       </c>
@@ -1730,7 +1748,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="2:9" ht="12.75">
       <c r="B28" s="8" t="s">
         <v>22</v>
       </c>
@@ -1741,7 +1759,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="2:9" ht="12.75">
       <c r="B29" s="8" t="s">
         <v>22</v>
       </c>
@@ -1752,7 +1770,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="2:9" ht="12.75">
       <c r="B30" s="8" t="s">
         <v>38</v>
       </c>
@@ -1763,7 +1781,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="2:9" ht="12.75">
       <c r="B31" s="8" t="s">
         <v>38</v>
       </c>
@@ -1771,7 +1789,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="2:9" ht="12.75">
       <c r="B32" s="8" t="s">
         <v>38</v>
       </c>
@@ -1779,7 +1797,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="2:8" ht="12.75">
       <c r="B33" s="8" t="s">
         <v>38</v>
       </c>
@@ -1787,13 +1805,13 @@
         <v>39</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="2:8" ht="12.75">
       <c r="B36" s="6"/>
       <c r="C36" s="8" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="2:8" ht="12.75">
       <c r="B37" s="8" t="s">
         <v>11</v>
       </c>
@@ -1804,7 +1822,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="2:8" ht="12.75">
       <c r="B38" s="8" t="s">
         <v>11</v>
       </c>
@@ -1812,7 +1830,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="2:8" ht="12.75">
       <c r="B39" s="8" t="s">
         <v>11</v>
       </c>
@@ -1823,7 +1841,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="2:8" ht="12.75">
       <c r="B40" s="8" t="s">
         <v>11</v>
       </c>
@@ -1831,7 +1849,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="2:8" ht="12.75">
       <c r="B41" s="8" t="s">
         <v>11</v>
       </c>
@@ -1845,7 +1863,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="2:8" ht="12.75">
       <c r="B42" s="8" t="s">
         <v>48</v>
       </c>
@@ -1856,7 +1874,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="2:8" ht="12.75">
       <c r="B43" s="8" t="s">
         <v>48</v>
       </c>
@@ -1868,7 +1886,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" spans="2:8" ht="12.75">
       <c r="B44" s="8" t="s">
         <v>48</v>
       </c>
@@ -1879,7 +1897,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" spans="2:8" ht="12.75">
       <c r="B45" s="8" t="s">
         <v>48</v>
       </c>
@@ -1890,7 +1908,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="2:8" ht="12.75">
       <c r="B46" s="8" t="s">
         <v>48</v>
       </c>
@@ -1901,7 +1919,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" spans="2:8" ht="12.75">
       <c r="B47" s="8" t="s">
         <v>48</v>
       </c>
@@ -1912,7 +1930,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" spans="2:8" ht="12.75">
       <c r="B48" s="8" t="s">
         <v>48</v>
       </c>
@@ -1920,7 +1938,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" spans="2:8" ht="12.75">
       <c r="B49" s="8" t="s">
         <v>48</v>
       </c>
@@ -1931,7 +1949,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" spans="2:8" ht="12.75">
       <c r="B50" s="8" t="s">
         <v>48</v>
       </c>
@@ -1939,7 +1957,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" spans="2:8" ht="12.75">
       <c r="B51" s="8" t="s">
         <v>38</v>
       </c>
@@ -1950,7 +1968,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" spans="2:8" ht="12.75">
       <c r="B52" s="8" t="s">
         <v>38</v>
       </c>
@@ -1958,7 +1976,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" spans="2:8" ht="12.75">
       <c r="B53" s="8" t="s">
         <v>38</v>
       </c>
@@ -1969,7 +1987,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" spans="2:8" ht="12.75">
       <c r="B54" s="8" t="s">
         <v>38</v>
       </c>
@@ -1977,7 +1995,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" spans="2:8" ht="12.75">
       <c r="B55" s="8" t="s">
         <v>38</v>
       </c>
@@ -1988,7 +2006,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" spans="2:8" ht="12.75">
       <c r="B56" s="8" t="s">
         <v>38</v>
       </c>
@@ -1996,13 +2014,13 @@
         <v>63</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" spans="2:8" ht="12.75">
       <c r="B58" s="6"/>
       <c r="C58" s="6" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" spans="2:8" ht="12.75">
       <c r="B59" s="8" t="s">
         <v>22</v>
       </c>
@@ -2010,7 +2028,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" spans="2:8" ht="12.75">
       <c r="B60" s="8" t="s">
         <v>22</v>
       </c>
@@ -2018,7 +2036,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" spans="2:8" ht="12.75">
       <c r="B61" s="8" t="s">
         <v>22</v>
       </c>
@@ -2027,7 +2045,7 @@
       </c>
       <c r="H61" s="11"/>
     </row>
-    <row r="62">
+    <row r="62" spans="2:8" ht="12.75">
       <c r="B62" s="8" t="s">
         <v>22</v>
       </c>
@@ -2038,7 +2056,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" spans="2:8" ht="12.75">
       <c r="B63" s="8" t="s">
         <v>22</v>
       </c>
@@ -2049,18 +2067,18 @@
         <v>13</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" spans="2:8" ht="12.75">
       <c r="H64" s="11" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" spans="2:9" ht="12.75">
       <c r="B65" s="6"/>
       <c r="C65" s="8" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" spans="2:9" ht="12.75">
       <c r="B66" s="8" t="s">
         <v>11</v>
       </c>
@@ -2068,7 +2086,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="67">
+    <row r="67" spans="2:9" ht="12.75">
       <c r="B67" s="8" t="s">
         <v>11</v>
       </c>
@@ -2076,7 +2094,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" spans="2:9" ht="12.75">
       <c r="B68" s="8" t="s">
         <v>11</v>
       </c>
@@ -2084,7 +2102,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" spans="2:9" ht="12.75">
       <c r="B69" s="8" t="s">
         <v>11</v>
       </c>
@@ -2092,7 +2110,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="70">
+    <row r="70" spans="2:9" ht="12.75">
       <c r="B70" s="8" t="s">
         <v>11</v>
       </c>
@@ -2103,7 +2121,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="71">
+    <row r="71" spans="2:9" ht="12.75">
       <c r="B71" s="8" t="s">
         <v>11</v>
       </c>
@@ -2111,7 +2129,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="72">
+    <row r="72" spans="2:9" ht="12.75">
       <c r="B72" s="8" t="s">
         <v>11</v>
       </c>
@@ -2122,7 +2140,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="73">
+    <row r="73" spans="2:9" ht="12.75">
       <c r="B73" s="8" t="s">
         <v>11</v>
       </c>
@@ -2130,7 +2148,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="74">
+    <row r="74" spans="2:9" ht="12.75">
       <c r="B74" s="8" t="s">
         <v>11</v>
       </c>
@@ -2138,7 +2156,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="75">
+    <row r="75" spans="2:9" ht="12.75">
       <c r="B75" s="8" t="s">
         <v>22</v>
       </c>
@@ -2146,7 +2164,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="76">
+    <row r="76" spans="2:9" ht="12.75">
       <c r="B76" s="8" t="s">
         <v>22</v>
       </c>
@@ -2157,7 +2175,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="77">
+    <row r="77" spans="2:9" ht="12.75">
       <c r="B77" s="8" t="s">
         <v>22</v>
       </c>
@@ -2165,7 +2183,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="79">
+    <row r="79" spans="2:9" ht="12.75">
       <c r="B79" s="6"/>
       <c r="C79" s="8" t="s">
         <v>82</v>
@@ -2174,7 +2192,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="80">
+    <row r="80" spans="2:9" ht="15">
       <c r="B80" s="8" t="s">
         <v>11</v>
       </c>
@@ -2185,7 +2203,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="81">
+    <row r="81" spans="2:9" ht="12.75">
       <c r="B81" s="8" t="s">
         <v>11</v>
       </c>
@@ -2193,7 +2211,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="82">
+    <row r="82" spans="2:9" ht="15">
       <c r="B82" s="8" t="s">
         <v>11</v>
       </c>
@@ -2207,7 +2225,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="83">
+    <row r="83" spans="2:9" ht="12.75">
       <c r="B83" s="8" t="s">
         <v>11</v>
       </c>
@@ -2215,7 +2233,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="84">
+    <row r="84" spans="2:9" ht="15">
       <c r="B84" s="8" t="s">
         <v>22</v>
       </c>
@@ -2223,7 +2241,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="85">
+    <row r="85" spans="2:9" ht="15">
       <c r="B85" s="8" t="s">
         <v>22</v>
       </c>
@@ -2234,7 +2252,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="86">
+    <row r="86" spans="2:9" ht="12.75">
       <c r="B86" s="8" t="s">
         <v>22</v>
       </c>
@@ -2242,7 +2260,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="87">
+    <row r="87" spans="2:9" ht="15">
       <c r="B87" s="8" t="s">
         <v>22</v>
       </c>
@@ -2253,7 +2271,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="88">
+    <row r="88" spans="2:9" ht="15">
       <c r="B88" s="8" t="s">
         <v>22</v>
       </c>
@@ -2261,7 +2279,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="89">
+    <row r="89" spans="2:9" ht="12.75">
       <c r="B89" s="8" t="s">
         <v>38</v>
       </c>
@@ -2272,7 +2290,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="90">
+    <row r="90" spans="2:9" ht="12.75">
       <c r="B90" s="8" t="s">
         <v>38</v>
       </c>
@@ -2280,7 +2298,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="91">
+    <row r="91" spans="2:9" ht="12.75">
       <c r="B91" s="8" t="s">
         <v>38</v>
       </c>
@@ -2291,7 +2309,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="92">
+    <row r="92" spans="2:9" ht="15">
       <c r="B92" s="8" t="s">
         <v>38</v>
       </c>
@@ -2302,7 +2320,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="93">
+    <row r="93" spans="2:9" ht="15">
       <c r="B93" s="8" t="s">
         <v>38</v>
       </c>
@@ -2310,7 +2328,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="94">
+    <row r="94" spans="2:9" ht="15">
       <c r="B94" s="8" t="s">
         <v>38</v>
       </c>
@@ -2321,13 +2339,13 @@
         <v>13</v>
       </c>
     </row>
-    <row r="96">
+    <row r="96" spans="2:9" ht="12.75">
       <c r="B96" s="6"/>
       <c r="C96" s="19" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="97">
+    <row r="97" spans="2:9" ht="12.75">
       <c r="B97" s="8" t="s">
         <v>11</v>
       </c>
@@ -2335,7 +2353,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="98">
+    <row r="98" spans="2:9" ht="12.75">
       <c r="B98" s="8" t="s">
         <v>11</v>
       </c>
@@ -2346,7 +2364,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="99">
+    <row r="99" spans="2:9" ht="12.75">
       <c r="B99" s="8" t="s">
         <v>11</v>
       </c>
@@ -2357,7 +2375,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="100">
+    <row r="100" spans="2:9" ht="12.75">
       <c r="B100" s="8" t="s">
         <v>11</v>
       </c>
@@ -2365,7 +2383,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="101">
+    <row r="101" spans="2:9" ht="12.75">
       <c r="B101" s="8" t="s">
         <v>11</v>
       </c>
@@ -2373,7 +2391,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="102">
+    <row r="102" spans="2:9" ht="12.75">
       <c r="B102" s="8" t="s">
         <v>11</v>
       </c>
@@ -2384,7 +2402,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="103">
+    <row r="103" spans="2:9" ht="12.75">
       <c r="B103" s="8" t="s">
         <v>11</v>
       </c>
@@ -2398,7 +2416,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="104">
+    <row r="104" spans="2:9" ht="12.75">
       <c r="B104" s="8" t="s">
         <v>11</v>
       </c>
@@ -2407,7 +2425,7 @@
       </c>
       <c r="H104" s="11"/>
     </row>
-    <row r="105">
+    <row r="105" spans="2:9" ht="12.75">
       <c r="B105" s="8" t="s">
         <v>11</v>
       </c>
@@ -2418,7 +2436,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="106">
+    <row r="106" spans="2:9" ht="12.75">
       <c r="B106" s="8" t="s">
         <v>11</v>
       </c>
@@ -2426,7 +2444,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="107">
+    <row r="107" spans="2:9" ht="12.75">
       <c r="B107" s="8" t="s">
         <v>11</v>
       </c>
@@ -2440,7 +2458,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="108">
+    <row r="108" spans="2:9" ht="12.75">
       <c r="B108" s="8" t="s">
         <v>22</v>
       </c>
@@ -2448,7 +2466,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="109">
+    <row r="109" spans="2:9" ht="12.75">
       <c r="B109" s="8" t="s">
         <v>22</v>
       </c>
@@ -2456,7 +2474,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="110">
+    <row r="110" spans="2:9" ht="12.75">
       <c r="B110" s="8" t="s">
         <v>22</v>
       </c>
@@ -2467,7 +2485,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="111">
+    <row r="111" spans="2:9" ht="12.75">
       <c r="B111" s="8" t="s">
         <v>22</v>
       </c>
@@ -2475,7 +2493,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="112">
+    <row r="112" spans="2:9" ht="12.75">
       <c r="B112" s="8" t="s">
         <v>22</v>
       </c>
@@ -2483,7 +2501,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="113">
+    <row r="113" spans="2:9" ht="12.75">
       <c r="B113" s="8" t="s">
         <v>22</v>
       </c>
@@ -2494,7 +2512,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="114">
+    <row r="114" spans="2:9" ht="12.75">
       <c r="B114" s="8" t="s">
         <v>22</v>
       </c>
@@ -2505,7 +2523,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="115">
+    <row r="115" spans="2:9" ht="12.75">
       <c r="B115" s="8" t="s">
         <v>22</v>
       </c>
@@ -2513,7 +2531,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="116">
+    <row r="116" spans="2:9" ht="12.75">
       <c r="B116" s="8" t="s">
         <v>22</v>
       </c>
@@ -2521,7 +2539,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="117">
+    <row r="117" spans="2:9" ht="12.75">
       <c r="B117" s="8" t="s">
         <v>22</v>
       </c>
@@ -2529,7 +2547,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="118">
+    <row r="118" spans="2:9" ht="12.75">
       <c r="B118" s="8" t="s">
         <v>38</v>
       </c>
@@ -2537,7 +2555,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="119">
+    <row r="119" spans="2:9" ht="12.75">
       <c r="B119" s="8" t="s">
         <v>38</v>
       </c>
@@ -2548,7 +2566,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="120">
+    <row r="120" spans="2:9" ht="12.75">
       <c r="B120" s="8" t="s">
         <v>38</v>
       </c>
@@ -2559,7 +2577,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="121">
+    <row r="121" spans="2:9" ht="12.75">
       <c r="B121" s="8" t="s">
         <v>38</v>
       </c>
@@ -2567,7 +2585,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="122">
+    <row r="122" spans="2:9" ht="12.75">
       <c r="B122" s="8" t="s">
         <v>38</v>
       </c>
@@ -2575,12 +2593,12 @@
         <v>123</v>
       </c>
     </row>
-    <row r="124">
+    <row r="124" spans="2:9" ht="12.75">
       <c r="C124" s="20" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="125">
+    <row r="125" spans="2:9" ht="12.75">
       <c r="B125" s="8" t="s">
         <v>11</v>
       </c>
@@ -2588,7 +2606,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="126">
+    <row r="126" spans="2:9" ht="12.75">
       <c r="B126" s="8" t="s">
         <v>11</v>
       </c>
@@ -2599,7 +2617,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="127">
+    <row r="127" spans="2:9" ht="12.75">
       <c r="B127" s="8" t="s">
         <v>11</v>
       </c>
@@ -2613,7 +2631,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="128">
+    <row r="128" spans="2:9" ht="12.75">
       <c r="B128" s="8" t="s">
         <v>11</v>
       </c>
@@ -2621,7 +2639,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="129">
+    <row r="129" spans="2:9" ht="12.75">
       <c r="B129" s="8" t="s">
         <v>11</v>
       </c>
@@ -2632,7 +2650,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="130">
+    <row r="130" spans="2:9" ht="12.75">
       <c r="B130" s="8" t="s">
         <v>11</v>
       </c>
@@ -2640,7 +2658,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="131">
+    <row r="131" spans="2:9" ht="12.75">
       <c r="B131" s="8" t="s">
         <v>22</v>
       </c>
@@ -2648,7 +2666,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="132">
+    <row r="132" spans="2:9" ht="12.75">
       <c r="B132" s="8" t="s">
         <v>22</v>
       </c>
@@ -2659,7 +2677,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="133">
+    <row r="133" spans="2:9" ht="12.75">
       <c r="B133" s="8" t="s">
         <v>22</v>
       </c>
@@ -2670,7 +2688,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="134">
+    <row r="134" spans="2:9" ht="12.75">
       <c r="B134" s="8" t="s">
         <v>22</v>
       </c>
@@ -2681,7 +2699,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="135">
+    <row r="135" spans="2:9" ht="12.75">
       <c r="B135" s="8" t="s">
         <v>22</v>
       </c>
@@ -2692,7 +2710,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="136">
+    <row r="136" spans="2:9" ht="12.75">
       <c r="B136" s="8" t="s">
         <v>22</v>
       </c>
@@ -2700,7 +2718,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="137">
+    <row r="137" spans="2:9" ht="12.75">
       <c r="B137" s="8" t="s">
         <v>22</v>
       </c>
@@ -2711,7 +2729,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="138">
+    <row r="138" spans="2:9" ht="12.75">
       <c r="B138" s="8" t="s">
         <v>22</v>
       </c>
@@ -2719,7 +2737,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="139">
+    <row r="139" spans="2:9" ht="12.75">
       <c r="B139" s="8" t="s">
         <v>38</v>
       </c>
@@ -2733,7 +2751,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="140">
+    <row r="140" spans="2:9" ht="12.75">
       <c r="B140" s="8" t="s">
         <v>38</v>
       </c>
@@ -2744,7 +2762,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="141">
+    <row r="141" spans="2:9" ht="12.75">
       <c r="B141" s="8" t="s">
         <v>38</v>
       </c>
@@ -2752,18 +2770,18 @@
         <v>141</v>
       </c>
     </row>
-    <row r="142">
+    <row r="142" spans="2:9" ht="12.75">
       <c r="G142" s="11" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="143">
+    <row r="143" spans="2:9" ht="12.75">
       <c r="B143" s="6"/>
       <c r="C143" s="23" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="144">
+    <row r="144" spans="2:9" ht="12.75">
       <c r="B144" s="8" t="s">
         <v>11</v>
       </c>
@@ -2771,7 +2789,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="145">
+    <row r="145" spans="2:9" ht="12.75">
       <c r="B145" s="8" t="s">
         <v>11</v>
       </c>
@@ -2782,7 +2800,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="146">
+    <row r="146" spans="2:9" ht="12.75">
       <c r="B146" s="8" t="s">
         <v>11</v>
       </c>
@@ -2796,7 +2814,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="147">
+    <row r="147" spans="2:9" ht="12.75">
       <c r="B147" s="8" t="s">
         <v>11</v>
       </c>
@@ -2805,7 +2823,7 @@
       </c>
       <c r="F147" s="11"/>
     </row>
-    <row r="148">
+    <row r="148" spans="2:9" ht="12.75">
       <c r="B148" s="8" t="s">
         <v>11</v>
       </c>
@@ -2819,7 +2837,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="149">
+    <row r="149" spans="2:9" ht="12.75">
       <c r="B149" s="8" t="s">
         <v>11</v>
       </c>
@@ -2827,7 +2845,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="150">
+    <row r="150" spans="2:9" ht="12.75">
       <c r="B150" s="8" t="s">
         <v>11</v>
       </c>
@@ -2835,7 +2853,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="151">
+    <row r="151" spans="2:9" ht="12.75">
       <c r="B151" s="8" t="s">
         <v>11</v>
       </c>
@@ -2843,7 +2861,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="152">
+    <row r="152" spans="2:9" ht="12.75">
       <c r="B152" s="8" t="s">
         <v>11</v>
       </c>
@@ -2857,7 +2875,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="153">
+    <row r="153" spans="2:9" ht="12.75">
       <c r="B153" s="8" t="s">
         <v>11</v>
       </c>
@@ -2865,7 +2883,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="154">
+    <row r="154" spans="2:9" ht="12.75">
       <c r="B154" s="8" t="s">
         <v>11</v>
       </c>
@@ -2876,7 +2894,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="155">
+    <row r="155" spans="2:9" ht="12.75">
       <c r="B155" s="8" t="s">
         <v>11</v>
       </c>
@@ -2884,7 +2902,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="156">
+    <row r="156" spans="2:9" ht="12.75">
       <c r="B156" s="8" t="s">
         <v>11</v>
       </c>
@@ -2892,7 +2910,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="157">
+    <row r="157" spans="2:9" ht="12.75">
       <c r="B157" s="8" t="s">
         <v>11</v>
       </c>
@@ -2906,7 +2924,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="158">
+    <row r="158" spans="2:9" ht="12.75">
       <c r="B158" s="8" t="s">
         <v>11</v>
       </c>
@@ -2917,7 +2935,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="159">
+    <row r="159" spans="2:9" ht="12.75">
       <c r="B159" s="8" t="s">
         <v>11</v>
       </c>
@@ -2925,7 +2943,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="160">
+    <row r="160" spans="2:9" ht="12.75">
       <c r="B160" s="8" t="s">
         <v>11</v>
       </c>
@@ -2933,7 +2951,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="161">
+    <row r="161" spans="2:9" ht="12.75">
       <c r="B161" s="8" t="s">
         <v>11</v>
       </c>
@@ -2941,7 +2959,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="162">
+    <row r="162" spans="2:9" ht="12.75">
       <c r="B162" s="8" t="s">
         <v>22</v>
       </c>
@@ -2949,7 +2967,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="163">
+    <row r="163" spans="2:9" ht="12.75">
       <c r="B163" s="8" t="s">
         <v>22</v>
       </c>
@@ -2957,7 +2975,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="164">
+    <row r="164" spans="2:9" ht="12.75">
       <c r="B164" s="8" t="s">
         <v>22</v>
       </c>
@@ -2965,7 +2983,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="165">
+    <row r="165" spans="2:9" ht="12.75">
       <c r="B165" s="8" t="s">
         <v>22</v>
       </c>
@@ -2976,7 +2994,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="166">
+    <row r="166" spans="2:9" ht="12.75">
       <c r="B166" s="8" t="s">
         <v>22</v>
       </c>
@@ -2987,7 +3005,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="167">
+    <row r="167" spans="2:9" ht="12.75">
       <c r="B167" s="8" t="s">
         <v>22</v>
       </c>
@@ -2995,7 +3013,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="168">
+    <row r="168" spans="2:9" ht="12.75">
       <c r="B168" s="8" t="s">
         <v>22</v>
       </c>
@@ -3003,7 +3021,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="169">
+    <row r="169" spans="2:9" ht="12.75">
       <c r="B169" s="8" t="s">
         <v>22</v>
       </c>
@@ -3011,7 +3029,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="170">
+    <row r="170" spans="2:9" ht="12.75">
       <c r="B170" s="8" t="s">
         <v>22</v>
       </c>
@@ -3022,7 +3040,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="171">
+    <row r="171" spans="2:9" ht="12.75">
       <c r="B171" s="8" t="s">
         <v>22</v>
       </c>
@@ -3036,7 +3054,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="172">
+    <row r="172" spans="2:9" ht="12.75">
       <c r="B172" s="8" t="s">
         <v>22</v>
       </c>
@@ -3053,7 +3071,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="173">
+    <row r="173" spans="2:9" ht="12.75">
       <c r="B173" s="8" t="s">
         <v>22</v>
       </c>
@@ -3064,7 +3082,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="174">
+    <row r="174" spans="2:9" ht="12.75">
       <c r="B174" s="8" t="s">
         <v>22</v>
       </c>
@@ -3081,7 +3099,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="175">
+    <row r="175" spans="2:9" ht="12.75">
       <c r="B175" s="8" t="s">
         <v>22</v>
       </c>
@@ -3089,7 +3107,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="176">
+    <row r="176" spans="2:9" ht="12.75">
       <c r="B176" s="8" t="s">
         <v>22</v>
       </c>
@@ -3097,7 +3115,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="177">
+    <row r="177" spans="2:9" ht="12.75">
       <c r="B177" s="8" t="s">
         <v>22</v>
       </c>
@@ -3108,7 +3126,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="178">
+    <row r="178" spans="2:9" ht="12.75">
       <c r="B178" s="8" t="s">
         <v>22</v>
       </c>
@@ -3119,7 +3137,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="179">
+    <row r="179" spans="2:9" ht="12.75">
       <c r="B179" s="8" t="s">
         <v>22</v>
       </c>
@@ -3130,7 +3148,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="180">
+    <row r="180" spans="2:9" ht="12.75">
       <c r="B180" s="8" t="s">
         <v>22</v>
       </c>
@@ -3138,7 +3156,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="181">
+    <row r="181" spans="2:9" ht="12.75">
       <c r="B181" s="8" t="s">
         <v>22</v>
       </c>
@@ -3152,7 +3170,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="182">
+    <row r="182" spans="2:9" ht="12.75">
       <c r="B182" s="8" t="s">
         <v>38</v>
       </c>
@@ -3160,7 +3178,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="183">
+    <row r="183" spans="2:9" ht="12.75">
       <c r="B183" s="8" t="s">
         <v>38</v>
       </c>
@@ -3171,7 +3189,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="184">
+    <row r="184" spans="2:9" ht="12.75">
       <c r="B184" s="8" t="s">
         <v>38</v>
       </c>
@@ -3182,7 +3200,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="185">
+    <row r="185" spans="2:9" ht="12.75">
       <c r="B185" s="8" t="s">
         <v>38</v>
       </c>
@@ -3196,7 +3214,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="186">
+    <row r="186" spans="2:9" ht="12.75">
       <c r="B186" s="8" t="s">
         <v>38</v>
       </c>
@@ -3207,7 +3225,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="187">
+    <row r="187" spans="2:9" ht="12.75">
       <c r="B187" s="8" t="s">
         <v>38</v>
       </c>
@@ -3218,7 +3236,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="188">
+    <row r="188" spans="2:9" ht="12.75">
       <c r="B188" s="8" t="s">
         <v>38</v>
       </c>
@@ -3229,7 +3247,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="189">
+    <row r="189" spans="2:9" ht="12.75">
       <c r="B189" s="8" t="s">
         <v>38</v>
       </c>
@@ -3237,7 +3255,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="190">
+    <row r="190" spans="2:9" ht="12.75">
       <c r="B190" s="8" t="s">
         <v>38</v>
       </c>
@@ -3248,7 +3266,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="191">
+    <row r="191" spans="2:9" ht="12.75">
       <c r="B191" s="8" t="s">
         <v>38</v>
       </c>
@@ -3256,13 +3274,13 @@
         <v>190</v>
       </c>
     </row>
-    <row r="193">
+    <row r="193" spans="2:7" ht="12.75">
       <c r="B193" s="6"/>
       <c r="C193" s="8" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="194">
+    <row r="194" spans="2:7" ht="12.75">
       <c r="B194" s="8" t="s">
         <v>11</v>
       </c>
@@ -3273,7 +3291,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="195">
+    <row r="195" spans="2:7" ht="12.75">
       <c r="B195" s="8" t="s">
         <v>11</v>
       </c>
@@ -3284,7 +3302,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="196">
+    <row r="196" spans="2:7" ht="12.75">
       <c r="B196" s="8" t="s">
         <v>11</v>
       </c>
@@ -3292,7 +3310,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="197">
+    <row r="197" spans="2:7" ht="12.75">
       <c r="B197" s="8" t="s">
         <v>11</v>
       </c>
@@ -3303,7 +3321,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="198">
+    <row r="198" spans="2:7" ht="12.75">
       <c r="B198" s="8" t="s">
         <v>11</v>
       </c>
@@ -3311,7 +3329,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="199">
+    <row r="199" spans="2:7" ht="12.75">
       <c r="B199" s="8" t="s">
         <v>11</v>
       </c>
@@ -3319,7 +3337,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="200">
+    <row r="200" spans="2:7" ht="12.75">
       <c r="B200" s="8" t="s">
         <v>11</v>
       </c>
@@ -3327,7 +3345,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="201">
+    <row r="201" spans="2:7" ht="12.75">
       <c r="B201" s="8" t="s">
         <v>22</v>
       </c>
@@ -3338,7 +3356,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="202">
+    <row r="202" spans="2:7" ht="12.75">
       <c r="B202" s="8" t="s">
         <v>22</v>
       </c>
@@ -3349,7 +3367,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="203">
+    <row r="203" spans="2:7" ht="12.75">
       <c r="B203" s="8" t="s">
         <v>22</v>
       </c>
@@ -3360,7 +3378,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="204">
+    <row r="204" spans="2:7" ht="12.75">
       <c r="B204" s="8" t="s">
         <v>22</v>
       </c>
@@ -3374,7 +3392,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="205">
+    <row r="205" spans="2:7" ht="12.75">
       <c r="B205" s="8" t="s">
         <v>22</v>
       </c>
@@ -3382,7 +3400,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="206">
+    <row r="206" spans="2:7" ht="12.75">
       <c r="B206" s="8" t="s">
         <v>22</v>
       </c>
@@ -3390,7 +3408,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="207">
+    <row r="207" spans="2:7" ht="12.75">
       <c r="B207" s="8" t="s">
         <v>22</v>
       </c>
@@ -3401,7 +3419,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="208">
+    <row r="208" spans="2:7" ht="12.75">
       <c r="B208" s="8" t="s">
         <v>22</v>
       </c>
@@ -3409,7 +3427,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="209">
+    <row r="209" spans="2:9" ht="12.75">
       <c r="B209" s="8" t="s">
         <v>22</v>
       </c>
@@ -3417,7 +3435,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="210">
+    <row r="210" spans="2:9" ht="12.75">
       <c r="B210" s="8" t="s">
         <v>22</v>
       </c>
@@ -3425,7 +3443,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="211">
+    <row r="211" spans="2:9" ht="12.75">
       <c r="B211" s="8" t="s">
         <v>22</v>
       </c>
@@ -3433,7 +3451,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="212">
+    <row r="212" spans="2:9" ht="12.75">
       <c r="B212" s="8" t="s">
         <v>22</v>
       </c>
@@ -3441,7 +3459,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="213">
+    <row r="213" spans="2:9" ht="12.75">
       <c r="B213" s="8" t="s">
         <v>22</v>
       </c>
@@ -3452,7 +3470,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="214">
+    <row r="214" spans="2:9" ht="12.75">
       <c r="B214" s="8" t="s">
         <v>22</v>
       </c>
@@ -3460,7 +3478,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="215">
+    <row r="215" spans="2:9" ht="12.75">
       <c r="B215" s="8" t="s">
         <v>22</v>
       </c>
@@ -3468,7 +3486,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="216">
+    <row r="216" spans="2:9" ht="12.75">
       <c r="B216" s="8" t="s">
         <v>22</v>
       </c>
@@ -3476,7 +3494,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="217">
+    <row r="217" spans="2:9" ht="12.75">
       <c r="B217" s="8" t="s">
         <v>22</v>
       </c>
@@ -3487,7 +3505,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="218">
+    <row r="218" spans="2:9" ht="12.75">
       <c r="B218" s="8" t="s">
         <v>22</v>
       </c>
@@ -3501,7 +3519,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="219">
+    <row r="219" spans="2:9" ht="12.75">
       <c r="B219" s="8" t="s">
         <v>22</v>
       </c>
@@ -3509,7 +3527,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="220">
+    <row r="220" spans="2:9" ht="12.75">
       <c r="B220" s="8" t="s">
         <v>22</v>
       </c>
@@ -3517,7 +3535,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="221">
+    <row r="221" spans="2:9" ht="12.75">
       <c r="B221" s="8" t="s">
         <v>38</v>
       </c>
@@ -3528,7 +3546,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="222">
+    <row r="222" spans="2:9" ht="12.75">
       <c r="B222" s="8" t="s">
         <v>38</v>
       </c>
@@ -3536,7 +3554,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="223">
+    <row r="223" spans="2:9" ht="12.75">
       <c r="B223" s="8" t="s">
         <v>38</v>
       </c>
@@ -3550,7 +3568,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="224">
+    <row r="224" spans="2:9" ht="12.75">
       <c r="B224" s="8" t="s">
         <v>38</v>
       </c>
@@ -3561,7 +3579,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="225">
+    <row r="225" spans="2:9" ht="12.75">
       <c r="B225" s="8" t="s">
         <v>38</v>
       </c>
@@ -3575,7 +3593,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="226">
+    <row r="226" spans="2:9" ht="12.75">
       <c r="B226" s="8" t="s">
         <v>38</v>
       </c>
@@ -3584,7 +3602,7 @@
       </c>
       <c r="G226" s="11"/>
     </row>
-    <row r="227">
+    <row r="227" spans="2:9" ht="12.75">
       <c r="B227" s="8" t="s">
         <v>38</v>
       </c>
@@ -3601,7 +3619,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="228">
+    <row r="228" spans="2:9" ht="12.75">
       <c r="B228" s="8" t="s">
         <v>38</v>
       </c>
@@ -3609,7 +3627,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="229">
+    <row r="229" spans="2:9" ht="12.75">
       <c r="B229" s="8" t="s">
         <v>38</v>
       </c>
@@ -3617,7 +3635,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="230">
+    <row r="230" spans="2:9" ht="12.75">
       <c r="B230" s="8" t="s">
         <v>38</v>
       </c>
@@ -3625,17 +3643,17 @@
         <v>229</v>
       </c>
     </row>
-    <row r="231">
+    <row r="231" spans="2:9" ht="12.75">
       <c r="B231" s="6"/>
       <c r="C231" s="6"/>
     </row>
-    <row r="232">
+    <row r="232" spans="2:9" ht="12.75">
       <c r="B232" s="6"/>
       <c r="C232" s="24" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="233">
+    <row r="233" spans="2:9" ht="12.75">
       <c r="B233" s="8" t="s">
         <v>22</v>
       </c>
@@ -3643,7 +3661,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="234">
+    <row r="234" spans="2:9" ht="12.75">
       <c r="B234" s="8" t="s">
         <v>22</v>
       </c>
@@ -3654,7 +3672,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="235">
+    <row r="235" spans="2:9" ht="12.75">
       <c r="B235" s="8" t="s">
         <v>22</v>
       </c>
@@ -3665,7 +3683,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="236">
+    <row r="236" spans="2:9" ht="12.75">
       <c r="B236" s="8" t="s">
         <v>22</v>
       </c>
@@ -3676,7 +3694,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="237">
+    <row r="237" spans="2:9" ht="12.75">
       <c r="B237" s="8" t="s">
         <v>38</v>
       </c>
@@ -3687,7 +3705,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="238">
+    <row r="238" spans="2:9" ht="12.75">
       <c r="B238" s="8" t="s">
         <v>38</v>
       </c>
@@ -3695,21 +3713,21 @@
         <v>236</v>
       </c>
     </row>
-    <row r="239">
+    <row r="239" spans="2:9" ht="12.75">
       <c r="B239" s="6"/>
       <c r="C239" s="6"/>
     </row>
-    <row r="240">
+    <row r="240" spans="2:9" ht="12.75">
       <c r="B240" s="6"/>
       <c r="C240" s="20" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="241">
+    <row r="241" spans="2:7" ht="12.75">
       <c r="B241" s="6"/>
       <c r="C241" s="6"/>
     </row>
-    <row r="242">
+    <row r="242" spans="2:7" ht="12.75">
       <c r="B242" s="8" t="s">
         <v>238</v>
       </c>
@@ -3717,7 +3735,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="243">
+    <row r="243" spans="2:7" ht="12.75">
       <c r="B243" s="8" t="s">
         <v>238</v>
       </c>
@@ -3725,7 +3743,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="244">
+    <row r="244" spans="2:7" ht="12.75">
       <c r="B244" s="8" t="s">
         <v>238</v>
       </c>
@@ -3733,7 +3751,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="245">
+    <row r="245" spans="2:7" ht="12.75">
       <c r="B245" s="8" t="s">
         <v>238</v>
       </c>
@@ -3741,7 +3759,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="246">
+    <row r="246" spans="2:7" ht="12.75">
       <c r="B246" s="8" t="s">
         <v>238</v>
       </c>
@@ -3749,7 +3767,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="247">
+    <row r="247" spans="2:7" ht="12.75">
       <c r="B247" s="8" t="s">
         <v>238</v>
       </c>
@@ -3757,7 +3775,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="248">
+    <row r="248" spans="2:7" ht="12.75">
       <c r="B248" s="8" t="s">
         <v>238</v>
       </c>
@@ -3765,7 +3783,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="249">
+    <row r="249" spans="2:7" ht="12.75">
       <c r="B249" s="8" t="s">
         <v>238</v>
       </c>
@@ -3773,7 +3791,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="250">
+    <row r="250" spans="2:7" ht="12.75">
       <c r="B250" s="8" t="s">
         <v>238</v>
       </c>
@@ -3784,7 +3802,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="251">
+    <row r="251" spans="2:7" ht="12.75">
       <c r="B251" s="8" t="s">
         <v>238</v>
       </c>
@@ -3792,7 +3810,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="252">
+    <row r="252" spans="2:7" ht="12.75">
       <c r="B252" s="8" t="s">
         <v>38</v>
       </c>
@@ -3800,7 +3818,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="253">
+    <row r="253" spans="2:7" ht="12.75">
       <c r="B253" s="8" t="s">
         <v>38</v>
       </c>
@@ -3811,7 +3829,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="254">
+    <row r="254" spans="2:7" ht="12.75">
       <c r="B254" s="8" t="s">
         <v>38</v>
       </c>
@@ -3819,7 +3837,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="255">
+    <row r="255" spans="2:7" ht="12.75">
       <c r="B255" s="8" t="s">
         <v>38</v>
       </c>
@@ -3827,17 +3845,17 @@
         <v>252</v>
       </c>
     </row>
-    <row r="256">
+    <row r="256" spans="2:7" ht="12.75">
       <c r="B256" s="6"/>
       <c r="C256" s="6"/>
     </row>
-    <row r="257">
+    <row r="257" spans="2:9" ht="12.75">
       <c r="B257" s="6"/>
       <c r="C257" s="24" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="258">
+    <row r="258" spans="2:9" ht="12.75">
       <c r="B258" s="8" t="s">
         <v>11</v>
       </c>
@@ -3845,7 +3863,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="259">
+    <row r="259" spans="2:9" ht="12.75">
       <c r="B259" s="8" t="s">
         <v>11</v>
       </c>
@@ -3856,7 +3874,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="260">
+    <row r="260" spans="2:9" ht="12.75">
       <c r="B260" s="8" t="s">
         <v>11</v>
       </c>
@@ -3867,7 +3885,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="261">
+    <row r="261" spans="2:9" ht="12.75">
       <c r="B261" s="8" t="s">
         <v>11</v>
       </c>
@@ -3878,7 +3896,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="262">
+    <row r="262" spans="2:9" ht="12.75">
       <c r="B262" s="8" t="s">
         <v>22</v>
       </c>
@@ -3886,7 +3904,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="263">
+    <row r="263" spans="2:9" ht="12.75">
       <c r="B263" s="8" t="s">
         <v>22</v>
       </c>
@@ -3894,7 +3912,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="264">
+    <row r="264" spans="2:9" ht="12.75">
       <c r="B264" s="8" t="s">
         <v>22</v>
       </c>
@@ -3905,7 +3923,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="265">
+    <row r="265" spans="2:9" ht="12.75">
       <c r="B265" s="8" t="s">
         <v>22</v>
       </c>
@@ -3916,7 +3934,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="266">
+    <row r="266" spans="2:9" ht="12.75">
       <c r="B266" s="8" t="s">
         <v>22</v>
       </c>
@@ -3928,7 +3946,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="267">
+    <row r="267" spans="2:9" ht="12.75">
       <c r="B267" s="8" t="s">
         <v>22</v>
       </c>
@@ -3942,7 +3960,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="268">
+    <row r="268" spans="2:9" ht="12.75">
       <c r="B268" s="8" t="s">
         <v>22</v>
       </c>
@@ -3953,7 +3971,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="269">
+    <row r="269" spans="2:9" ht="12.75">
       <c r="B269" s="8" t="s">
         <v>22</v>
       </c>
@@ -3962,7 +3980,7 @@
       </c>
       <c r="H269" s="11"/>
     </row>
-    <row r="270">
+    <row r="270" spans="2:9" ht="12.75">
       <c r="B270" s="8" t="s">
         <v>22</v>
       </c>
@@ -3973,7 +3991,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="271">
+    <row r="271" spans="2:9" ht="12.75">
       <c r="B271" s="8" t="s">
         <v>22</v>
       </c>
@@ -3984,7 +4002,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="272">
+    <row r="272" spans="2:9" ht="12.75">
       <c r="B272" s="8" t="s">
         <v>22</v>
       </c>
@@ -3992,7 +4010,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="273">
+    <row r="273" spans="2:9" ht="12.75">
       <c r="B273" s="8" t="s">
         <v>22</v>
       </c>
@@ -4000,7 +4018,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="274">
+    <row r="274" spans="2:9" ht="12.75">
       <c r="B274" s="8" t="s">
         <v>22</v>
       </c>
@@ -4008,7 +4026,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="275">
+    <row r="275" spans="2:9" ht="12.75">
       <c r="B275" s="8" t="s">
         <v>22</v>
       </c>
@@ -4016,7 +4034,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="276">
+    <row r="276" spans="2:9" ht="12.75">
       <c r="B276" s="8" t="s">
         <v>22</v>
       </c>
@@ -4027,7 +4045,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="277">
+    <row r="277" spans="2:9" ht="12.75">
       <c r="B277" s="8" t="s">
         <v>38</v>
       </c>
@@ -4035,7 +4053,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="278">
+    <row r="278" spans="2:9" ht="12.75">
       <c r="B278" s="8" t="s">
         <v>38</v>
       </c>
@@ -4043,7 +4061,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="279">
+    <row r="279" spans="2:9" ht="12.75">
       <c r="B279" s="8" t="s">
         <v>38</v>
       </c>
@@ -4054,7 +4072,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="280">
+    <row r="280" spans="2:9" ht="12.75">
       <c r="B280" s="8" t="s">
         <v>38</v>
       </c>
@@ -4062,7 +4080,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="281">
+    <row r="281" spans="2:9" ht="12.75">
       <c r="B281" s="8" t="s">
         <v>38</v>
       </c>
@@ -4073,7 +4091,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="282">
+    <row r="282" spans="2:9" ht="12.75">
       <c r="B282" s="8" t="s">
         <v>38</v>
       </c>
@@ -4084,7 +4102,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="283">
+    <row r="283" spans="2:9" ht="12.75">
       <c r="B283" s="8" t="s">
         <v>38</v>
       </c>
@@ -4095,7 +4113,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="284">
+    <row r="284" spans="2:9" ht="12.75">
       <c r="B284" s="8" t="s">
         <v>38</v>
       </c>
@@ -4106,7 +4124,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="285">
+    <row r="285" spans="2:9" ht="12.75">
       <c r="B285" s="8" t="s">
         <v>38</v>
       </c>
@@ -4117,7 +4135,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="286">
+    <row r="286" spans="2:9" ht="12.75">
       <c r="B286" s="8" t="s">
         <v>38</v>
       </c>
@@ -4125,7 +4143,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="287">
+    <row r="287" spans="2:9" ht="12.75">
       <c r="B287" s="8" t="s">
         <v>38</v>
       </c>
@@ -4133,20 +4151,20 @@
         <v>283</v>
       </c>
     </row>
-    <row r="288">
+    <row r="288" spans="2:9" ht="12.75">
       <c r="B288" s="6"/>
       <c r="C288" s="6"/>
       <c r="I288" s="11" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="289">
+    <row r="289" spans="2:9" ht="12.75">
       <c r="B289" s="6"/>
       <c r="C289" s="3" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="290">
+    <row r="290" spans="2:9" ht="12.75">
       <c r="B290" s="8" t="s">
         <v>22</v>
       </c>
@@ -4157,7 +4175,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="291">
+    <row r="291" spans="2:9" ht="12.75">
       <c r="B291" s="8" t="s">
         <v>22</v>
       </c>
@@ -4165,7 +4183,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="292">
+    <row r="292" spans="2:9" ht="12.75">
       <c r="B292" s="8" t="s">
         <v>22</v>
       </c>
@@ -4173,21 +4191,21 @@
         <v>286</v>
       </c>
     </row>
-    <row r="293">
+    <row r="293" spans="2:9" ht="12.75">
       <c r="B293" s="6"/>
       <c r="C293" s="6"/>
     </row>
-    <row r="294">
+    <row r="294" spans="2:9" ht="12.75">
       <c r="B294" s="6"/>
       <c r="C294" s="6"/>
     </row>
-    <row r="295">
+    <row r="295" spans="2:9" ht="12.75">
       <c r="B295" s="6"/>
       <c r="C295" s="3" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="296">
+    <row r="296" spans="2:9" ht="12.75">
       <c r="B296" s="8" t="s">
         <v>238</v>
       </c>
@@ -4195,7 +4213,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="297">
+    <row r="297" spans="2:9" ht="12.75">
       <c r="B297" s="8" t="s">
         <v>238</v>
       </c>
@@ -4203,7 +4221,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="298">
+    <row r="298" spans="2:9" ht="12.75">
       <c r="B298" s="8" t="s">
         <v>238</v>
       </c>
@@ -4214,7 +4232,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="299">
+    <row r="299" spans="2:9" ht="12.75">
       <c r="B299" s="8" t="s">
         <v>238</v>
       </c>
@@ -4222,7 +4240,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="300">
+    <row r="300" spans="2:9" ht="12.75">
       <c r="B300" s="8" t="s">
         <v>238</v>
       </c>
@@ -4233,7 +4251,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="301">
+    <row r="301" spans="2:9" ht="12.75">
       <c r="B301" s="8" t="s">
         <v>238</v>
       </c>
@@ -4244,7 +4262,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="302">
+    <row r="302" spans="2:9" ht="12.75">
       <c r="B302" s="8" t="s">
         <v>238</v>
       </c>
@@ -4255,7 +4273,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="303">
+    <row r="303" spans="2:9" ht="12.75">
       <c r="B303" s="8" t="s">
         <v>238</v>
       </c>
@@ -4266,7 +4284,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="304">
+    <row r="304" spans="2:9" ht="12.75">
       <c r="B304" s="8" t="s">
         <v>238</v>
       </c>
@@ -4274,7 +4292,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="305">
+    <row r="305" spans="2:9" ht="12.75">
       <c r="B305" s="8" t="s">
         <v>238</v>
       </c>
@@ -4282,24 +4300,24 @@
         <v>297</v>
       </c>
     </row>
-    <row r="306">
+    <row r="306" spans="2:9" ht="12.75">
       <c r="B306" s="6"/>
       <c r="C306" s="6"/>
       <c r="I306" s="11" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="307">
+    <row r="307" spans="2:9" ht="12.75">
       <c r="B307" s="6"/>
       <c r="C307" s="6"/>
     </row>
-    <row r="308">
+    <row r="308" spans="2:9" ht="12.75">
       <c r="B308" s="6"/>
       <c r="C308" s="25" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="309">
+    <row r="309" spans="2:9" ht="12.75">
       <c r="B309" s="8" t="s">
         <v>22</v>
       </c>
@@ -4307,7 +4325,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="310">
+    <row r="310" spans="2:9" ht="12.75">
       <c r="B310" s="8" t="s">
         <v>22</v>
       </c>
@@ -4315,7 +4333,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="311">
+    <row r="311" spans="2:9" ht="12.75">
       <c r="B311" s="8" t="s">
         <v>22</v>
       </c>
@@ -4329,7 +4347,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="312">
+    <row r="312" spans="2:9" ht="12.75">
       <c r="B312" s="8" t="s">
         <v>22</v>
       </c>
@@ -4337,7 +4355,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="313">
+    <row r="313" spans="2:9" ht="12.75">
       <c r="B313" s="8" t="s">
         <v>22</v>
       </c>
@@ -4345,7 +4363,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="314">
+    <row r="314" spans="2:9" ht="12.75">
       <c r="B314" s="8" t="s">
         <v>22</v>
       </c>
@@ -4353,7 +4371,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="315">
+    <row r="315" spans="2:9" ht="12.75">
       <c r="B315" s="8" t="s">
         <v>22</v>
       </c>
@@ -4364,7 +4382,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="316">
+    <row r="316" spans="2:9" ht="12.75">
       <c r="B316" s="8" t="s">
         <v>22</v>
       </c>
@@ -4372,7 +4390,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="317">
+    <row r="317" spans="2:9" ht="12.75">
       <c r="B317" s="8" t="s">
         <v>38</v>
       </c>
@@ -4383,7 +4401,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="318">
+    <row r="318" spans="2:9" ht="12.75">
       <c r="B318" s="8" t="s">
         <v>38</v>
       </c>
@@ -4394,7 +4412,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="319">
+    <row r="319" spans="2:9" ht="12.75">
       <c r="B319" s="8" t="s">
         <v>38</v>
       </c>
@@ -4402,7 +4420,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="320">
+    <row r="320" spans="2:9" ht="12.75">
       <c r="B320" s="8" t="s">
         <v>38</v>
       </c>
@@ -4413,7 +4431,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="321">
+    <row r="321" spans="2:8" ht="12.75">
       <c r="B321" s="8" t="s">
         <v>38</v>
       </c>
@@ -4422,7 +4440,7 @@
       </c>
       <c r="H321" s="11"/>
     </row>
-    <row r="322">
+    <row r="322" spans="2:8" ht="12.75">
       <c r="B322" s="8" t="s">
         <v>38</v>
       </c>
@@ -4433,7 +4451,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="323">
+    <row r="323" spans="2:8" ht="12.75">
       <c r="B323" s="8" t="s">
         <v>38</v>
       </c>
@@ -4444,7 +4462,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="324">
+    <row r="324" spans="2:8" ht="12.75">
       <c r="B324" s="8" t="s">
         <v>38</v>
       </c>
@@ -4455,7 +4473,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="325">
+    <row r="325" spans="2:8" ht="12.75">
       <c r="B325" s="8" t="s">
         <v>38</v>
       </c>
@@ -4463,7 +4481,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="326">
+    <row r="326" spans="2:8" ht="12.75">
       <c r="B326" s="8" t="s">
         <v>38</v>
       </c>
@@ -4471,17 +4489,17 @@
         <v>316</v>
       </c>
     </row>
-    <row r="327">
+    <row r="327" spans="2:8" ht="12.75">
       <c r="B327" s="6"/>
       <c r="C327" s="6"/>
     </row>
-    <row r="328">
+    <row r="328" spans="2:8" ht="15">
       <c r="B328" s="6"/>
       <c r="C328" s="26" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="329">
+    <row r="329" spans="2:8" ht="12.75">
       <c r="B329" s="8" t="s">
         <v>318</v>
       </c>
@@ -4492,7 +4510,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="330">
+    <row r="330" spans="2:8" ht="12.75">
       <c r="B330" s="8" t="s">
         <v>318</v>
       </c>
@@ -4503,7 +4521,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="331">
+    <row r="331" spans="2:8" ht="12.75">
       <c r="B331" s="8" t="s">
         <v>318</v>
       </c>
@@ -4511,7 +4529,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="332">
+    <row r="332" spans="2:8" ht="12.75">
       <c r="B332" s="8" t="s">
         <v>318</v>
       </c>
@@ -4522,314 +4540,314 @@
         <v>13</v>
       </c>
     </row>
-    <row r="333">
+    <row r="333" spans="2:8" ht="12.75">
       <c r="E333" s="11" t="s">
         <v>13</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="C2"/>
-    <hyperlink r:id="rId2" ref="C6"/>
-    <hyperlink r:id="rId3" ref="C7"/>
-    <hyperlink r:id="rId4" ref="C8"/>
-    <hyperlink r:id="rId5" ref="C9"/>
-    <hyperlink r:id="rId6" ref="C10"/>
-    <hyperlink r:id="rId7" ref="C11"/>
-    <hyperlink r:id="rId8" ref="C12"/>
-    <hyperlink r:id="rId9" ref="C13"/>
-    <hyperlink r:id="rId10" ref="C14"/>
-    <hyperlink r:id="rId11" ref="C15"/>
-    <hyperlink r:id="rId12" ref="C16"/>
-    <hyperlink r:id="rId13" ref="C17"/>
-    <hyperlink r:id="rId14" ref="C18"/>
-    <hyperlink r:id="rId15" ref="C19"/>
-    <hyperlink r:id="rId16" ref="C20"/>
-    <hyperlink r:id="rId17" ref="C21"/>
-    <hyperlink r:id="rId18" ref="C22"/>
-    <hyperlink r:id="rId19" ref="C23"/>
-    <hyperlink r:id="rId20" ref="C24"/>
-    <hyperlink r:id="rId21" ref="C25"/>
-    <hyperlink r:id="rId22" ref="C26"/>
-    <hyperlink r:id="rId23" ref="C27"/>
-    <hyperlink r:id="rId24" ref="C28"/>
-    <hyperlink r:id="rId25" ref="C29"/>
-    <hyperlink r:id="rId26" ref="C30"/>
-    <hyperlink r:id="rId27" ref="C31"/>
-    <hyperlink r:id="rId28" ref="C32"/>
-    <hyperlink r:id="rId29" ref="C33"/>
-    <hyperlink r:id="rId30" ref="C37"/>
-    <hyperlink r:id="rId31" ref="C38"/>
-    <hyperlink r:id="rId32" ref="C39"/>
-    <hyperlink r:id="rId33" ref="C40"/>
-    <hyperlink r:id="rId34" ref="C41"/>
-    <hyperlink r:id="rId35" ref="C42"/>
-    <hyperlink r:id="rId36" ref="C43"/>
-    <hyperlink r:id="rId37" ref="C44"/>
-    <hyperlink r:id="rId38" ref="C45"/>
-    <hyperlink r:id="rId39" ref="C46"/>
-    <hyperlink r:id="rId40" ref="C47"/>
-    <hyperlink r:id="rId41" ref="C48"/>
-    <hyperlink r:id="rId42" ref="C49"/>
-    <hyperlink r:id="rId43" ref="C50"/>
-    <hyperlink r:id="rId44" ref="C51"/>
-    <hyperlink r:id="rId45" ref="C52"/>
-    <hyperlink r:id="rId46" ref="C53"/>
-    <hyperlink r:id="rId47" ref="C54"/>
-    <hyperlink r:id="rId48" ref="C55"/>
-    <hyperlink r:id="rId49" ref="C56"/>
-    <hyperlink r:id="rId50" ref="C59"/>
-    <hyperlink r:id="rId51" ref="C60"/>
-    <hyperlink r:id="rId52" ref="C61"/>
-    <hyperlink r:id="rId53" ref="C62"/>
-    <hyperlink r:id="rId54" ref="C63"/>
-    <hyperlink r:id="rId55" ref="C66"/>
-    <hyperlink r:id="rId56" ref="C67"/>
-    <hyperlink r:id="rId57" ref="C68"/>
-    <hyperlink r:id="rId58" ref="C69"/>
-    <hyperlink r:id="rId59" ref="C70"/>
-    <hyperlink r:id="rId60" ref="C71"/>
-    <hyperlink r:id="rId61" ref="C72"/>
-    <hyperlink r:id="rId62" ref="C73"/>
-    <hyperlink r:id="rId63" ref="C74"/>
-    <hyperlink r:id="rId64" ref="C75"/>
-    <hyperlink r:id="rId65" ref="C76"/>
-    <hyperlink r:id="rId66" ref="C77"/>
-    <hyperlink r:id="rId67" ref="C80"/>
-    <hyperlink r:id="rId68" ref="C81"/>
-    <hyperlink r:id="rId69" ref="C82"/>
-    <hyperlink r:id="rId70" ref="C83"/>
-    <hyperlink r:id="rId71" ref="C84"/>
-    <hyperlink r:id="rId72" ref="C85"/>
-    <hyperlink r:id="rId73" ref="C86"/>
-    <hyperlink r:id="rId74" ref="C87"/>
-    <hyperlink r:id="rId75" ref="C88"/>
-    <hyperlink r:id="rId76" ref="C89"/>
-    <hyperlink r:id="rId77" ref="C90"/>
-    <hyperlink r:id="rId78" ref="C91"/>
-    <hyperlink r:id="rId79" ref="C92"/>
-    <hyperlink r:id="rId80" ref="C93"/>
-    <hyperlink r:id="rId81" ref="C94"/>
-    <hyperlink r:id="rId82" ref="C97"/>
-    <hyperlink r:id="rId83" ref="C98"/>
-    <hyperlink r:id="rId84" ref="C99"/>
-    <hyperlink r:id="rId85" ref="C100"/>
-    <hyperlink r:id="rId86" ref="C101"/>
-    <hyperlink r:id="rId87" ref="C102"/>
-    <hyperlink r:id="rId88" ref="C103"/>
-    <hyperlink r:id="rId89" ref="C104"/>
-    <hyperlink r:id="rId90" ref="C105"/>
-    <hyperlink r:id="rId91" ref="C106"/>
-    <hyperlink r:id="rId92" ref="C107"/>
-    <hyperlink r:id="rId93" ref="C108"/>
-    <hyperlink r:id="rId94" ref="C109"/>
-    <hyperlink r:id="rId95" ref="C110"/>
-    <hyperlink r:id="rId96" ref="C111"/>
-    <hyperlink r:id="rId97" ref="C112"/>
-    <hyperlink r:id="rId98" ref="C113"/>
-    <hyperlink r:id="rId99" ref="C114"/>
-    <hyperlink r:id="rId100" ref="C115"/>
-    <hyperlink r:id="rId101" ref="C116"/>
-    <hyperlink r:id="rId102" ref="C117"/>
-    <hyperlink r:id="rId103" ref="C118"/>
-    <hyperlink r:id="rId104" ref="C119"/>
-    <hyperlink r:id="rId105" ref="C120"/>
-    <hyperlink r:id="rId106" ref="C121"/>
-    <hyperlink r:id="rId107" ref="C122"/>
-    <hyperlink r:id="rId108" ref="C125"/>
-    <hyperlink r:id="rId109" ref="C126"/>
-    <hyperlink r:id="rId110" ref="C127"/>
-    <hyperlink r:id="rId111" ref="C128"/>
-    <hyperlink r:id="rId112" ref="C129"/>
-    <hyperlink r:id="rId113" ref="C130"/>
-    <hyperlink r:id="rId114" ref="C131"/>
-    <hyperlink r:id="rId115" ref="C132"/>
-    <hyperlink r:id="rId116" ref="C133"/>
-    <hyperlink r:id="rId117" ref="C134"/>
-    <hyperlink r:id="rId118" ref="C135"/>
-    <hyperlink r:id="rId119" ref="C136"/>
-    <hyperlink r:id="rId120" ref="C137"/>
-    <hyperlink r:id="rId121" ref="C138"/>
-    <hyperlink r:id="rId122" ref="C139"/>
-    <hyperlink r:id="rId123" ref="C140"/>
-    <hyperlink r:id="rId124" ref="C141"/>
-    <hyperlink r:id="rId125" ref="C144"/>
-    <hyperlink r:id="rId126" ref="C145"/>
-    <hyperlink r:id="rId127" ref="C146"/>
-    <hyperlink r:id="rId128" ref="C147"/>
-    <hyperlink r:id="rId129" ref="C148"/>
-    <hyperlink r:id="rId130" ref="C149"/>
-    <hyperlink r:id="rId131" ref="C150"/>
-    <hyperlink r:id="rId132" ref="C151"/>
-    <hyperlink r:id="rId133" ref="C152"/>
-    <hyperlink r:id="rId134" ref="C153"/>
-    <hyperlink r:id="rId135" ref="C154"/>
-    <hyperlink r:id="rId136" ref="C155"/>
-    <hyperlink r:id="rId137" ref="C156"/>
-    <hyperlink r:id="rId138" ref="C157"/>
-    <hyperlink r:id="rId139" ref="C158"/>
-    <hyperlink r:id="rId140" ref="C159"/>
-    <hyperlink r:id="rId141" ref="C160"/>
-    <hyperlink r:id="rId142" ref="C161"/>
-    <hyperlink r:id="rId143" ref="C162"/>
-    <hyperlink r:id="rId144" ref="C163"/>
-    <hyperlink r:id="rId145" ref="C164"/>
-    <hyperlink r:id="rId146" ref="C165"/>
-    <hyperlink r:id="rId147" ref="C166"/>
-    <hyperlink r:id="rId148" ref="C167"/>
-    <hyperlink r:id="rId149" ref="C168"/>
-    <hyperlink r:id="rId150" ref="C169"/>
-    <hyperlink r:id="rId151" ref="C170"/>
-    <hyperlink r:id="rId152" ref="C171"/>
-    <hyperlink r:id="rId153" ref="C172"/>
-    <hyperlink r:id="rId154" ref="C173"/>
-    <hyperlink r:id="rId155" ref="C174"/>
-    <hyperlink r:id="rId156" ref="C175"/>
-    <hyperlink r:id="rId157" ref="C176"/>
-    <hyperlink r:id="rId158" ref="C177"/>
-    <hyperlink r:id="rId159" ref="C178"/>
-    <hyperlink r:id="rId160" ref="C179"/>
-    <hyperlink r:id="rId161" ref="C180"/>
-    <hyperlink r:id="rId162" ref="C181"/>
-    <hyperlink r:id="rId163" ref="C182"/>
-    <hyperlink r:id="rId164" ref="C183"/>
-    <hyperlink r:id="rId165" ref="C184"/>
-    <hyperlink r:id="rId166" ref="C185"/>
-    <hyperlink r:id="rId167" ref="C186"/>
-    <hyperlink r:id="rId168" ref="C187"/>
-    <hyperlink r:id="rId169" ref="C188"/>
-    <hyperlink r:id="rId170" ref="C189"/>
-    <hyperlink r:id="rId171" ref="C190"/>
-    <hyperlink r:id="rId172" ref="C191"/>
-    <hyperlink r:id="rId173" ref="C194"/>
-    <hyperlink r:id="rId174" ref="C195"/>
-    <hyperlink r:id="rId175" ref="C196"/>
-    <hyperlink r:id="rId176" ref="C197"/>
-    <hyperlink r:id="rId177" ref="C198"/>
-    <hyperlink r:id="rId178" ref="C199"/>
-    <hyperlink r:id="rId179" ref="C200"/>
-    <hyperlink r:id="rId180" ref="C201"/>
-    <hyperlink r:id="rId181" ref="C202"/>
-    <hyperlink r:id="rId182" ref="C203"/>
-    <hyperlink r:id="rId183" ref="C204"/>
-    <hyperlink r:id="rId184" ref="C205"/>
-    <hyperlink r:id="rId185" ref="C206"/>
-    <hyperlink r:id="rId186" ref="C207"/>
-    <hyperlink r:id="rId187" location=":~:text=Graph%20coloring%20problem%20is%20to,are%20colored%20using%20same%20color." ref="C208"/>
-    <hyperlink r:id="rId188" ref="C209"/>
-    <hyperlink r:id="rId189" ref="C210"/>
-    <hyperlink r:id="rId190" ref="C211"/>
-    <hyperlink r:id="rId191" ref="C212"/>
-    <hyperlink r:id="rId192" ref="C213"/>
-    <hyperlink r:id="rId193" ref="C214"/>
-    <hyperlink r:id="rId194" ref="C215"/>
-    <hyperlink r:id="rId195" ref="C216"/>
-    <hyperlink r:id="rId196" ref="C217"/>
-    <hyperlink r:id="rId197" ref="C218"/>
-    <hyperlink r:id="rId198" ref="C219"/>
-    <hyperlink r:id="rId199" ref="C220"/>
-    <hyperlink r:id="rId200" ref="C221"/>
-    <hyperlink r:id="rId201" ref="C222"/>
-    <hyperlink r:id="rId202" ref="C223"/>
-    <hyperlink r:id="rId203" ref="C224"/>
-    <hyperlink r:id="rId204" ref="C225"/>
-    <hyperlink r:id="rId205" ref="C226"/>
-    <hyperlink r:id="rId206" ref="C227"/>
-    <hyperlink r:id="rId207" ref="C228"/>
-    <hyperlink r:id="rId208" ref="C229"/>
-    <hyperlink r:id="rId209" ref="C230"/>
-    <hyperlink r:id="rId210" ref="C232"/>
-    <hyperlink r:id="rId211" ref="C233"/>
-    <hyperlink r:id="rId212" ref="C234"/>
-    <hyperlink r:id="rId213" ref="C235"/>
-    <hyperlink r:id="rId214" ref="C236"/>
-    <hyperlink r:id="rId215" ref="C237"/>
-    <hyperlink r:id="rId216" ref="C238"/>
-    <hyperlink r:id="rId217" ref="C242"/>
-    <hyperlink r:id="rId218" ref="C243"/>
-    <hyperlink r:id="rId219" ref="C244"/>
-    <hyperlink r:id="rId220" ref="C245"/>
-    <hyperlink r:id="rId221" ref="C246"/>
-    <hyperlink r:id="rId222" ref="C247"/>
-    <hyperlink r:id="rId223" ref="C248"/>
-    <hyperlink r:id="rId224" ref="C249"/>
-    <hyperlink r:id="rId225" ref="C250"/>
-    <hyperlink r:id="rId226" ref="C251"/>
-    <hyperlink r:id="rId227" ref="C252"/>
-    <hyperlink r:id="rId228" ref="C253"/>
-    <hyperlink r:id="rId229" ref="C254"/>
-    <hyperlink r:id="rId230" ref="C255"/>
-    <hyperlink r:id="rId231" ref="C257"/>
-    <hyperlink r:id="rId232" ref="C258"/>
-    <hyperlink r:id="rId233" ref="C259"/>
-    <hyperlink r:id="rId234" ref="C260"/>
-    <hyperlink r:id="rId235" ref="C261"/>
-    <hyperlink r:id="rId236" ref="C262"/>
-    <hyperlink r:id="rId237" ref="C263"/>
-    <hyperlink r:id="rId238" ref="C264"/>
-    <hyperlink r:id="rId239" ref="C265"/>
-    <hyperlink r:id="rId240" ref="C266"/>
-    <hyperlink r:id="rId241" ref="C267"/>
-    <hyperlink r:id="rId242" ref="C268"/>
-    <hyperlink r:id="rId243" ref="C269"/>
-    <hyperlink r:id="rId244" ref="C270"/>
-    <hyperlink r:id="rId245" ref="C271"/>
-    <hyperlink r:id="rId246" ref="C272"/>
-    <hyperlink r:id="rId247" ref="C273"/>
-    <hyperlink r:id="rId248" ref="C274"/>
-    <hyperlink r:id="rId249" ref="C275"/>
-    <hyperlink r:id="rId250" ref="C276"/>
-    <hyperlink r:id="rId251" ref="C277"/>
-    <hyperlink r:id="rId252" ref="C278"/>
-    <hyperlink r:id="rId253" ref="C279"/>
-    <hyperlink r:id="rId254" ref="C280"/>
-    <hyperlink r:id="rId255" ref="C281"/>
-    <hyperlink r:id="rId256" ref="C282"/>
-    <hyperlink r:id="rId257" ref="C283"/>
-    <hyperlink r:id="rId258" ref="C284"/>
-    <hyperlink r:id="rId259" ref="C285"/>
-    <hyperlink r:id="rId260" ref="C286"/>
-    <hyperlink r:id="rId261" ref="C287"/>
-    <hyperlink r:id="rId262" ref="C289"/>
-    <hyperlink r:id="rId263" ref="C290"/>
-    <hyperlink r:id="rId264" ref="C291"/>
-    <hyperlink r:id="rId265" ref="C292"/>
-    <hyperlink r:id="rId266" ref="C295"/>
-    <hyperlink r:id="rId267" ref="C296"/>
-    <hyperlink r:id="rId268" ref="C297"/>
-    <hyperlink r:id="rId269" ref="C298"/>
-    <hyperlink r:id="rId270" ref="C299"/>
-    <hyperlink r:id="rId271" ref="C300"/>
-    <hyperlink r:id="rId272" ref="C301"/>
-    <hyperlink r:id="rId273" ref="C302"/>
-    <hyperlink r:id="rId274" ref="C303"/>
-    <hyperlink r:id="rId275" ref="C304"/>
-    <hyperlink r:id="rId276" ref="C305"/>
-    <hyperlink r:id="rId277" ref="C308"/>
-    <hyperlink r:id="rId278" ref="C309"/>
-    <hyperlink r:id="rId279" ref="C310"/>
-    <hyperlink r:id="rId280" ref="C311"/>
-    <hyperlink r:id="rId281" ref="C312"/>
-    <hyperlink r:id="rId282" ref="C313"/>
-    <hyperlink r:id="rId283" ref="C314"/>
-    <hyperlink r:id="rId284" ref="C315"/>
-    <hyperlink r:id="rId285" ref="C316"/>
-    <hyperlink r:id="rId286" ref="C317"/>
-    <hyperlink r:id="rId287" ref="C318"/>
-    <hyperlink r:id="rId288" ref="C319"/>
-    <hyperlink r:id="rId289" ref="C320"/>
-    <hyperlink r:id="rId290" ref="C321"/>
-    <hyperlink r:id="rId291" ref="C322"/>
-    <hyperlink r:id="rId292" ref="C323"/>
-    <hyperlink r:id="rId293" ref="C324"/>
-    <hyperlink r:id="rId294" ref="C325"/>
-    <hyperlink r:id="rId295" ref="C326"/>
-    <hyperlink r:id="rId296" ref="C328"/>
-    <hyperlink r:id="rId297" ref="C329"/>
-    <hyperlink r:id="rId298" ref="C330"/>
-    <hyperlink r:id="rId299" ref="C331"/>
-    <hyperlink r:id="rId300" ref="C332"/>
+    <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="C6" r:id="rId2"/>
+    <hyperlink ref="C7" r:id="rId3"/>
+    <hyperlink ref="C8" r:id="rId4"/>
+    <hyperlink ref="C9" r:id="rId5"/>
+    <hyperlink ref="C10" r:id="rId6"/>
+    <hyperlink ref="C11" r:id="rId7"/>
+    <hyperlink ref="C12" r:id="rId8"/>
+    <hyperlink ref="C13" r:id="rId9"/>
+    <hyperlink ref="C14" r:id="rId10"/>
+    <hyperlink ref="C15" r:id="rId11"/>
+    <hyperlink ref="C16" r:id="rId12"/>
+    <hyperlink ref="C17" r:id="rId13"/>
+    <hyperlink ref="C18" r:id="rId14"/>
+    <hyperlink ref="C19" r:id="rId15"/>
+    <hyperlink ref="C20" r:id="rId16"/>
+    <hyperlink ref="C21" r:id="rId17"/>
+    <hyperlink ref="C22" r:id="rId18"/>
+    <hyperlink ref="C23" r:id="rId19"/>
+    <hyperlink ref="C24" r:id="rId20"/>
+    <hyperlink ref="C25" r:id="rId21"/>
+    <hyperlink ref="C26" r:id="rId22"/>
+    <hyperlink ref="C27" r:id="rId23"/>
+    <hyperlink ref="C28" r:id="rId24"/>
+    <hyperlink ref="C29" r:id="rId25"/>
+    <hyperlink ref="C30" r:id="rId26"/>
+    <hyperlink ref="C31" r:id="rId27"/>
+    <hyperlink ref="C32" r:id="rId28"/>
+    <hyperlink ref="C33" r:id="rId29"/>
+    <hyperlink ref="C37" r:id="rId30"/>
+    <hyperlink ref="C38" r:id="rId31"/>
+    <hyperlink ref="C39" r:id="rId32"/>
+    <hyperlink ref="C40" r:id="rId33"/>
+    <hyperlink ref="C41" r:id="rId34"/>
+    <hyperlink ref="C42" r:id="rId35"/>
+    <hyperlink ref="C43" r:id="rId36"/>
+    <hyperlink ref="C44" r:id="rId37"/>
+    <hyperlink ref="C45" r:id="rId38"/>
+    <hyperlink ref="C46" r:id="rId39"/>
+    <hyperlink ref="C47" r:id="rId40"/>
+    <hyperlink ref="C48" r:id="rId41"/>
+    <hyperlink ref="C49" r:id="rId42"/>
+    <hyperlink ref="C50" r:id="rId43"/>
+    <hyperlink ref="C51" r:id="rId44"/>
+    <hyperlink ref="C52" r:id="rId45"/>
+    <hyperlink ref="C53" r:id="rId46"/>
+    <hyperlink ref="C54" r:id="rId47"/>
+    <hyperlink ref="C55" r:id="rId48"/>
+    <hyperlink ref="C56" r:id="rId49"/>
+    <hyperlink ref="C59" r:id="rId50"/>
+    <hyperlink ref="C60" r:id="rId51"/>
+    <hyperlink ref="C61" r:id="rId52"/>
+    <hyperlink ref="C62" r:id="rId53"/>
+    <hyperlink ref="C63" r:id="rId54"/>
+    <hyperlink ref="C66" r:id="rId55"/>
+    <hyperlink ref="C67" r:id="rId56"/>
+    <hyperlink ref="C68" r:id="rId57"/>
+    <hyperlink ref="C69" r:id="rId58"/>
+    <hyperlink ref="C70" r:id="rId59"/>
+    <hyperlink ref="C71" r:id="rId60"/>
+    <hyperlink ref="C72" r:id="rId61"/>
+    <hyperlink ref="C73" r:id="rId62"/>
+    <hyperlink ref="C74" r:id="rId63"/>
+    <hyperlink ref="C75" r:id="rId64"/>
+    <hyperlink ref="C76" r:id="rId65"/>
+    <hyperlink ref="C77" r:id="rId66"/>
+    <hyperlink ref="C80" r:id="rId67"/>
+    <hyperlink ref="C81" r:id="rId68"/>
+    <hyperlink ref="C82" r:id="rId69"/>
+    <hyperlink ref="C83" r:id="rId70"/>
+    <hyperlink ref="C84" r:id="rId71"/>
+    <hyperlink ref="C85" r:id="rId72"/>
+    <hyperlink ref="C86" r:id="rId73"/>
+    <hyperlink ref="C87" r:id="rId74"/>
+    <hyperlink ref="C88" r:id="rId75"/>
+    <hyperlink ref="C89" r:id="rId76"/>
+    <hyperlink ref="C90" r:id="rId77"/>
+    <hyperlink ref="C91" r:id="rId78"/>
+    <hyperlink ref="C92" r:id="rId79"/>
+    <hyperlink ref="C93" r:id="rId80"/>
+    <hyperlink ref="C94" r:id="rId81"/>
+    <hyperlink ref="C97" r:id="rId82"/>
+    <hyperlink ref="C98" r:id="rId83"/>
+    <hyperlink ref="C99" r:id="rId84"/>
+    <hyperlink ref="C100" r:id="rId85"/>
+    <hyperlink ref="C101" r:id="rId86"/>
+    <hyperlink ref="C102" r:id="rId87"/>
+    <hyperlink ref="C103" r:id="rId88"/>
+    <hyperlink ref="C104" r:id="rId89"/>
+    <hyperlink ref="C105" r:id="rId90"/>
+    <hyperlink ref="C106" r:id="rId91"/>
+    <hyperlink ref="C107" r:id="rId92"/>
+    <hyperlink ref="C108" r:id="rId93"/>
+    <hyperlink ref="C109" r:id="rId94"/>
+    <hyperlink ref="C110" r:id="rId95"/>
+    <hyperlink ref="C111" r:id="rId96"/>
+    <hyperlink ref="C112" r:id="rId97"/>
+    <hyperlink ref="C113" r:id="rId98"/>
+    <hyperlink ref="C114" r:id="rId99"/>
+    <hyperlink ref="C115" r:id="rId100"/>
+    <hyperlink ref="C116" r:id="rId101"/>
+    <hyperlink ref="C117" r:id="rId102"/>
+    <hyperlink ref="C118" r:id="rId103"/>
+    <hyperlink ref="C119" r:id="rId104"/>
+    <hyperlink ref="C120" r:id="rId105"/>
+    <hyperlink ref="C121" r:id="rId106"/>
+    <hyperlink ref="C122" r:id="rId107"/>
+    <hyperlink ref="C125" r:id="rId108"/>
+    <hyperlink ref="C126" r:id="rId109"/>
+    <hyperlink ref="C127" r:id="rId110"/>
+    <hyperlink ref="C128" r:id="rId111"/>
+    <hyperlink ref="C129" r:id="rId112"/>
+    <hyperlink ref="C130" r:id="rId113"/>
+    <hyperlink ref="C131" r:id="rId114"/>
+    <hyperlink ref="C132" r:id="rId115"/>
+    <hyperlink ref="C133" r:id="rId116"/>
+    <hyperlink ref="C134" r:id="rId117"/>
+    <hyperlink ref="C135" r:id="rId118"/>
+    <hyperlink ref="C136" r:id="rId119"/>
+    <hyperlink ref="C137" r:id="rId120"/>
+    <hyperlink ref="C138" r:id="rId121"/>
+    <hyperlink ref="C139" r:id="rId122"/>
+    <hyperlink ref="C140" r:id="rId123"/>
+    <hyperlink ref="C141" r:id="rId124"/>
+    <hyperlink ref="C144" r:id="rId125"/>
+    <hyperlink ref="C145" r:id="rId126"/>
+    <hyperlink ref="C146" r:id="rId127"/>
+    <hyperlink ref="C147" r:id="rId128"/>
+    <hyperlink ref="C148" r:id="rId129"/>
+    <hyperlink ref="C149" r:id="rId130"/>
+    <hyperlink ref="C150" r:id="rId131"/>
+    <hyperlink ref="C151" r:id="rId132"/>
+    <hyperlink ref="C152" r:id="rId133"/>
+    <hyperlink ref="C153" r:id="rId134"/>
+    <hyperlink ref="C154" r:id="rId135"/>
+    <hyperlink ref="C155" r:id="rId136"/>
+    <hyperlink ref="C156" r:id="rId137"/>
+    <hyperlink ref="C157" r:id="rId138"/>
+    <hyperlink ref="C158" r:id="rId139"/>
+    <hyperlink ref="C159" r:id="rId140"/>
+    <hyperlink ref="C160" r:id="rId141"/>
+    <hyperlink ref="C161" r:id="rId142"/>
+    <hyperlink ref="C162" r:id="rId143"/>
+    <hyperlink ref="C163" r:id="rId144"/>
+    <hyperlink ref="C164" r:id="rId145"/>
+    <hyperlink ref="C165" r:id="rId146"/>
+    <hyperlink ref="C166" r:id="rId147"/>
+    <hyperlink ref="C167" r:id="rId148"/>
+    <hyperlink ref="C168" r:id="rId149"/>
+    <hyperlink ref="C169" r:id="rId150"/>
+    <hyperlink ref="C170" r:id="rId151"/>
+    <hyperlink ref="C171" r:id="rId152"/>
+    <hyperlink ref="C172" r:id="rId153"/>
+    <hyperlink ref="C173" r:id="rId154"/>
+    <hyperlink ref="C174" r:id="rId155"/>
+    <hyperlink ref="C175" r:id="rId156"/>
+    <hyperlink ref="C176" r:id="rId157"/>
+    <hyperlink ref="C177" r:id="rId158"/>
+    <hyperlink ref="C178" r:id="rId159"/>
+    <hyperlink ref="C179" r:id="rId160"/>
+    <hyperlink ref="C180" r:id="rId161"/>
+    <hyperlink ref="C181" r:id="rId162"/>
+    <hyperlink ref="C182" r:id="rId163"/>
+    <hyperlink ref="C183" r:id="rId164"/>
+    <hyperlink ref="C184" r:id="rId165"/>
+    <hyperlink ref="C185" r:id="rId166"/>
+    <hyperlink ref="C186" r:id="rId167"/>
+    <hyperlink ref="C187" r:id="rId168"/>
+    <hyperlink ref="C188" r:id="rId169"/>
+    <hyperlink ref="C189" r:id="rId170"/>
+    <hyperlink ref="C190" r:id="rId171"/>
+    <hyperlink ref="C191" r:id="rId172"/>
+    <hyperlink ref="C194" r:id="rId173"/>
+    <hyperlink ref="C195" r:id="rId174"/>
+    <hyperlink ref="C196" r:id="rId175"/>
+    <hyperlink ref="C197" r:id="rId176"/>
+    <hyperlink ref="C198" r:id="rId177"/>
+    <hyperlink ref="C199" r:id="rId178"/>
+    <hyperlink ref="C200" r:id="rId179"/>
+    <hyperlink ref="C201" r:id="rId180"/>
+    <hyperlink ref="C202" r:id="rId181"/>
+    <hyperlink ref="C203" r:id="rId182"/>
+    <hyperlink ref="C204" r:id="rId183"/>
+    <hyperlink ref="C205" r:id="rId184"/>
+    <hyperlink ref="C206" r:id="rId185"/>
+    <hyperlink ref="C207" r:id="rId186"/>
+    <hyperlink ref="C208" r:id="rId187" location=":~:text=Graph%20coloring%20problem%20is%20to,are%20colored%20using%20same%20color."/>
+    <hyperlink ref="C209" r:id="rId188"/>
+    <hyperlink ref="C210" r:id="rId189"/>
+    <hyperlink ref="C211" r:id="rId190"/>
+    <hyperlink ref="C212" r:id="rId191"/>
+    <hyperlink ref="C213" r:id="rId192"/>
+    <hyperlink ref="C214" r:id="rId193"/>
+    <hyperlink ref="C215" r:id="rId194"/>
+    <hyperlink ref="C216" r:id="rId195"/>
+    <hyperlink ref="C217" r:id="rId196"/>
+    <hyperlink ref="C218" r:id="rId197"/>
+    <hyperlink ref="C219" r:id="rId198"/>
+    <hyperlink ref="C220" r:id="rId199"/>
+    <hyperlink ref="C221" r:id="rId200"/>
+    <hyperlink ref="C222" r:id="rId201"/>
+    <hyperlink ref="C223" r:id="rId202"/>
+    <hyperlink ref="C224" r:id="rId203"/>
+    <hyperlink ref="C225" r:id="rId204"/>
+    <hyperlink ref="C226" r:id="rId205"/>
+    <hyperlink ref="C227" r:id="rId206"/>
+    <hyperlink ref="C228" r:id="rId207"/>
+    <hyperlink ref="C229" r:id="rId208"/>
+    <hyperlink ref="C230" r:id="rId209"/>
+    <hyperlink ref="C232" r:id="rId210"/>
+    <hyperlink ref="C233" r:id="rId211"/>
+    <hyperlink ref="C234" r:id="rId212"/>
+    <hyperlink ref="C235" r:id="rId213"/>
+    <hyperlink ref="C236" r:id="rId214"/>
+    <hyperlink ref="C237" r:id="rId215"/>
+    <hyperlink ref="C238" r:id="rId216"/>
+    <hyperlink ref="C242" r:id="rId217"/>
+    <hyperlink ref="C243" r:id="rId218"/>
+    <hyperlink ref="C244" r:id="rId219"/>
+    <hyperlink ref="C245" r:id="rId220"/>
+    <hyperlink ref="C246" r:id="rId221"/>
+    <hyperlink ref="C247" r:id="rId222"/>
+    <hyperlink ref="C248" r:id="rId223"/>
+    <hyperlink ref="C249" r:id="rId224"/>
+    <hyperlink ref="C250" r:id="rId225"/>
+    <hyperlink ref="C251" r:id="rId226"/>
+    <hyperlink ref="C252" r:id="rId227"/>
+    <hyperlink ref="C253" r:id="rId228"/>
+    <hyperlink ref="C254" r:id="rId229"/>
+    <hyperlink ref="C255" r:id="rId230"/>
+    <hyperlink ref="C257" r:id="rId231"/>
+    <hyperlink ref="C258" r:id="rId232"/>
+    <hyperlink ref="C259" r:id="rId233"/>
+    <hyperlink ref="C260" r:id="rId234"/>
+    <hyperlink ref="C261" r:id="rId235"/>
+    <hyperlink ref="C262" r:id="rId236"/>
+    <hyperlink ref="C263" r:id="rId237"/>
+    <hyperlink ref="C264" r:id="rId238"/>
+    <hyperlink ref="C265" r:id="rId239"/>
+    <hyperlink ref="C266" r:id="rId240"/>
+    <hyperlink ref="C267" r:id="rId241"/>
+    <hyperlink ref="C268" r:id="rId242"/>
+    <hyperlink ref="C269" r:id="rId243"/>
+    <hyperlink ref="C270" r:id="rId244"/>
+    <hyperlink ref="C271" r:id="rId245"/>
+    <hyperlink ref="C272" r:id="rId246"/>
+    <hyperlink ref="C273" r:id="rId247"/>
+    <hyperlink ref="C274" r:id="rId248"/>
+    <hyperlink ref="C275" r:id="rId249"/>
+    <hyperlink ref="C276" r:id="rId250"/>
+    <hyperlink ref="C277" r:id="rId251"/>
+    <hyperlink ref="C278" r:id="rId252"/>
+    <hyperlink ref="C279" r:id="rId253"/>
+    <hyperlink ref="C280" r:id="rId254"/>
+    <hyperlink ref="C281" r:id="rId255"/>
+    <hyperlink ref="C282" r:id="rId256"/>
+    <hyperlink ref="C283" r:id="rId257"/>
+    <hyperlink ref="C284" r:id="rId258"/>
+    <hyperlink ref="C285" r:id="rId259"/>
+    <hyperlink ref="C286" r:id="rId260"/>
+    <hyperlink ref="C287" r:id="rId261"/>
+    <hyperlink ref="C289" r:id="rId262"/>
+    <hyperlink ref="C290" r:id="rId263"/>
+    <hyperlink ref="C291" r:id="rId264"/>
+    <hyperlink ref="C292" r:id="rId265"/>
+    <hyperlink ref="C295" r:id="rId266"/>
+    <hyperlink ref="C296" r:id="rId267"/>
+    <hyperlink ref="C297" r:id="rId268"/>
+    <hyperlink ref="C298" r:id="rId269"/>
+    <hyperlink ref="C299" r:id="rId270"/>
+    <hyperlink ref="C300" r:id="rId271"/>
+    <hyperlink ref="C301" r:id="rId272"/>
+    <hyperlink ref="C302" r:id="rId273"/>
+    <hyperlink ref="C303" r:id="rId274"/>
+    <hyperlink ref="C304" r:id="rId275"/>
+    <hyperlink ref="C305" r:id="rId276"/>
+    <hyperlink ref="C308" r:id="rId277"/>
+    <hyperlink ref="C309" r:id="rId278"/>
+    <hyperlink ref="C310" r:id="rId279"/>
+    <hyperlink ref="C311" r:id="rId280"/>
+    <hyperlink ref="C312" r:id="rId281"/>
+    <hyperlink ref="C313" r:id="rId282"/>
+    <hyperlink ref="C314" r:id="rId283"/>
+    <hyperlink ref="C315" r:id="rId284"/>
+    <hyperlink ref="C316" r:id="rId285"/>
+    <hyperlink ref="C317" r:id="rId286"/>
+    <hyperlink ref="C318" r:id="rId287"/>
+    <hyperlink ref="C319" r:id="rId288"/>
+    <hyperlink ref="C320" r:id="rId289"/>
+    <hyperlink ref="C321" r:id="rId290"/>
+    <hyperlink ref="C322" r:id="rId291"/>
+    <hyperlink ref="C323" r:id="rId292"/>
+    <hyperlink ref="C324" r:id="rId293"/>
+    <hyperlink ref="C325" r:id="rId294"/>
+    <hyperlink ref="C326" r:id="rId295"/>
+    <hyperlink ref="C328" r:id="rId296"/>
+    <hyperlink ref="C329" r:id="rId297"/>
+    <hyperlink ref="C330" r:id="rId298"/>
+    <hyperlink ref="C331" r:id="rId299"/>
+    <hyperlink ref="C332" r:id="rId300"/>
   </hyperlinks>
-  <drawing r:id="rId301"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/#DSASheetbyArsh (45-60 Days).xlsx
+++ b/#DSASheetbyArsh (45-60 Days).xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="790" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="791" uniqueCount="323">
   <si>
     <t>#CrackYourInternship</t>
   </si>
@@ -1021,7 +1021,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="24">
+  <fonts count="25">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1167,6 +1167,13 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -1197,10 +1204,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1252,8 +1260,10 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1470,7 +1480,7 @@
   <dimension ref="A1:I333"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -1487,7 +1497,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" ht="12.75">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1521,11 +1531,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" ht="12.75">
       <c r="B6" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="27" t="s">
         <v>12</v>
       </c>
       <c r="D6" t="s">
@@ -1535,13 +1545,16 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" ht="12.75">
       <c r="B7" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C7" s="9" t="s">
         <v>14</v>
       </c>
+      <c r="D7" t="s">
+        <v>322</v>
+      </c>
       <c r="E7" s="10" t="s">
         <v>13</v>
       </c>
@@ -1552,7 +1565,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" ht="12.75">
       <c r="B8" s="8" t="s">
         <v>11</v>
       </c>
@@ -1563,7 +1576,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" ht="12.75">
       <c r="B9" s="8" t="s">
         <v>11</v>
       </c>
@@ -1572,7 +1585,7 @@
       </c>
       <c r="E9" s="11"/>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" ht="12.75">
       <c r="B10" s="8" t="s">
         <v>11</v>
       </c>
@@ -1583,7 +1596,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" ht="12.75">
       <c r="B11" s="8" t="s">
         <v>11</v>
       </c>
@@ -1595,7 +1608,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" ht="12.75">
       <c r="B12" s="8" t="s">
         <v>11</v>
       </c>
@@ -1603,7 +1616,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" ht="12.75">
       <c r="B13" s="8" t="s">
         <v>11</v>
       </c>
@@ -1611,7 +1624,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" ht="12.75">
       <c r="B14" s="8" t="s">
         <v>11</v>
       </c>
@@ -1622,7 +1635,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" ht="12.75">
       <c r="B15" s="8" t="s">
         <v>22</v>
       </c>
@@ -1630,7 +1643,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" ht="12.75">
       <c r="B16" s="8" t="s">
         <v>22</v>
       </c>
@@ -1641,7 +1654,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="2:9">
+    <row r="17" spans="2:9" ht="12.75">
       <c r="B17" s="8" t="s">
         <v>22</v>
       </c>
@@ -1652,7 +1665,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="2:9">
+    <row r="18" spans="2:9" ht="12.75">
       <c r="B18" s="8" t="s">
         <v>22</v>
       </c>
@@ -1664,7 +1677,7 @@
       </c>
       <c r="F18" s="11"/>
     </row>
-    <row r="19" spans="2:9">
+    <row r="19" spans="2:9" ht="12.75">
       <c r="B19" s="8" t="s">
         <v>22</v>
       </c>
@@ -1675,7 +1688,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="2:9">
+    <row r="20" spans="2:9" ht="12.75">
       <c r="B20" s="8" t="s">
         <v>22</v>
       </c>
@@ -1686,7 +1699,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="2:9">
+    <row r="21" spans="2:9" ht="12.75">
       <c r="B21" s="8" t="s">
         <v>22</v>
       </c>

--- a/#DSASheetbyArsh (45-60 Days).xlsx
+++ b/#DSASheetbyArsh (45-60 Days).xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="791" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="323">
   <si>
     <t>#CrackYourInternship</t>
   </si>
@@ -1480,7 +1480,7 @@
   <dimension ref="A1:I333"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -1572,6 +1572,9 @@
       <c r="C8" s="9" t="s">
         <v>15</v>
       </c>
+      <c r="D8" t="s">
+        <v>322</v>
+      </c>
       <c r="E8" s="10" t="s">
         <v>13</v>
       </c>
@@ -1589,7 +1592,7 @@
       <c r="B10" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="27" t="s">
         <v>17</v>
       </c>
       <c r="E10" s="10" t="s">
